--- a/2023-bis-2025-Teamstatistiken-R.xlsx
+++ b/2023-bis-2025-Teamstatistiken-R.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\MEK 2024-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB93D34-500E-4A07-A6E4-99AE64C86B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20375BF1-BC78-4BBC-9861-6459D305D296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>date</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>Welchen Tabellenplatz hatte der Gegner am Ende der Saison inne? (Natürliche Zahl zwischen 1 und Anzahl Teams in der Gruppe)</t>
+  </si>
+  <si>
+    <t>pktopp</t>
+  </si>
+  <si>
+    <t>Punkte Gegner</t>
+  </si>
+  <si>
+    <t>Die Punktzahl (absolut), die die gegnerische Mannschaft in der Saison 2023/24 erzielt hat</t>
   </si>
 </sst>
 </file>
@@ -586,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,8 +664,11 @@
       <c r="T1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20221030</v>
       </c>
@@ -723,8 +735,11 @@
         <f>(F2/J2)+(1-(G2/K2))</f>
         <v>0.99487179487179489</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20221105</v>
       </c>
@@ -747,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H34" si="0">F3-G3</f>
+        <f t="shared" ref="H3:H19" si="0">F3-G3</f>
         <v>2</v>
       </c>
       <c r="I3">
@@ -760,11 +775,11 @@
         <v>32</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L34" si="1">J3-K3</f>
+        <f t="shared" ref="L3:L19" si="1">J3-K3</f>
         <v>6</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M34" si="2">F3/J3</f>
+        <f t="shared" ref="M3:M19" si="2">F3/J3</f>
         <v>0.10526315789473684</v>
       </c>
       <c r="N3">
@@ -774,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P34" si="3">O3/N3</f>
+        <f t="shared" ref="P3:P19" si="3">O3/N3</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="Q3">
@@ -784,15 +799,18 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S34" si="4">1-(R3/Q3)</f>
+        <f t="shared" ref="S3:S19" si="4">1-(R3/Q3)</f>
         <v>1</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T34" si="5">(F3/J3)+(1-(G3/K3))</f>
+        <f t="shared" ref="T3:T19" si="5">(F3/J3)+(1-(G3/K3))</f>
         <v>1.0427631578947367</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20221112</v>
       </c>
@@ -859,8 +877,11 @@
         <f t="shared" si="5"/>
         <v>0.93076923076923079</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20221118</v>
       </c>
@@ -927,8 +948,11 @@
         <f t="shared" si="5"/>
         <v>1.1371291098636729</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20221120</v>
       </c>
@@ -995,8 +1019,11 @@
         <f t="shared" si="5"/>
         <v>1.0568990042674253</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20221127</v>
       </c>
@@ -1063,8 +1090,11 @@
         <f t="shared" si="5"/>
         <v>0.95714285714285707</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20221204</v>
       </c>
@@ -1131,8 +1161,11 @@
         <f t="shared" si="5"/>
         <v>0.9490909090909091</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20221210</v>
       </c>
@@ -1199,8 +1232,11 @@
         <f t="shared" si="5"/>
         <v>0.85390199637023589</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20221217</v>
       </c>
@@ -1267,8 +1303,11 @@
         <f t="shared" si="5"/>
         <v>1.0130434782608697</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20230107</v>
       </c>
@@ -1335,8 +1374,11 @@
         <f t="shared" si="5"/>
         <v>0.8668261562998405</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20230113</v>
       </c>
@@ -1403,8 +1445,11 @@
         <f t="shared" si="5"/>
         <v>1.1222222222222222</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20230131</v>
       </c>
@@ -1471,8 +1516,11 @@
         <f t="shared" si="5"/>
         <v>0.98607698607698613</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20230122</v>
       </c>
@@ -1539,8 +1587,11 @@
         <f t="shared" si="5"/>
         <v>1.1910946196660483</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20230127</v>
       </c>
@@ -1607,8 +1658,11 @@
         <f t="shared" si="5"/>
         <v>0.98051948051948046</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20230128</v>
       </c>
@@ -1675,8 +1729,11 @@
         <f t="shared" si="5"/>
         <v>0.94830659536541884</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20230203</v>
       </c>
@@ -1743,8 +1800,11 @@
         <f t="shared" si="5"/>
         <v>1.0540540540540539</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20230205</v>
       </c>
@@ -1811,8 +1871,11 @@
         <f t="shared" si="5"/>
         <v>1.0522727272727272</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20230211</v>
       </c>
@@ -1879,8 +1942,11 @@
         <f t="shared" si="5"/>
         <v>1.0892857142857142</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20231105</v>
       </c>
@@ -1903,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H20:H34" si="6">F20-G20</f>
         <v>-1</v>
       </c>
       <c r="I20">
@@ -1916,11 +1982,11 @@
         <v>21</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L20:L34" si="7">J20-K20</f>
         <v>18</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M20:M34" si="8">F20/J20</f>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="N20">
@@ -1930,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P20:P34" si="9">O20/N20</f>
         <v>0</v>
       </c>
       <c r="Q20">
@@ -1940,15 +2006,18 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S20:S34" si="10">1-(R20/Q20)</f>
         <v>1</v>
       </c>
       <c r="T20">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T20:T34" si="11">(F20/J20)+(1-(G20/K20))</f>
         <v>0.90842490842490853</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20231111</v>
       </c>
@@ -1971,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I21">
@@ -1984,11 +2053,11 @@
         <v>47</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-14</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="N21">
@@ -1998,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="Q21">
@@ -2008,15 +2077,18 @@
         <v>2</v>
       </c>
       <c r="S21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="T21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0967117988394584</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20231118</v>
       </c>
@@ -2039,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="I22">
@@ -2052,11 +2124,11 @@
         <v>32</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.10344827586206896</v>
       </c>
       <c r="N22">
@@ -2066,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="Q22">
@@ -2076,15 +2148,18 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.85714285714285721</v>
       </c>
       <c r="T22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.97844827586206895</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20231124</v>
       </c>
@@ -2107,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="I23">
@@ -2120,11 +2195,11 @@
         <v>31</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="N23">
@@ -2134,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="Q23">
@@ -2144,15 +2219,18 @@
         <v>2</v>
       </c>
       <c r="S23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="T23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.9620493358633776</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20231209</v>
       </c>
@@ -2175,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I24">
@@ -2188,11 +2266,11 @@
         <v>20</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="N24">
@@ -2202,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="Q24">
@@ -2212,15 +2290,18 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0851063829787233</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20231215</v>
       </c>
@@ -2243,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="I25">
@@ -2256,11 +2337,11 @@
         <v>39</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-7</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
       <c r="N25">
@@ -2270,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="Q25">
@@ -2280,15 +2361,18 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="T25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.95432692307692313</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20231217</v>
       </c>
@@ -2311,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="I26">
@@ -2324,11 +2408,11 @@
         <v>28</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="N26">
@@ -2338,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q26">
@@ -2348,15 +2432,18 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="T26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.95357142857142863</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20240105</v>
       </c>
@@ -2379,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I27">
@@ -2392,11 +2479,11 @@
         <v>23</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="N27">
@@ -2406,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="Q27">
@@ -2416,15 +2503,18 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="T27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0701581027667983</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20240113</v>
       </c>
@@ -2447,7 +2537,7 @@
         <v>8</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="I28">
@@ -2460,11 +2550,11 @@
         <v>32</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="M28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="N28">
@@ -2474,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="Q28">
@@ -2484,15 +2574,18 @@
         <v>2</v>
       </c>
       <c r="S28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="T28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.86111111111111116</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20240119</v>
       </c>
@@ -2515,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I29">
@@ -2528,11 +2621,11 @@
         <v>22</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="N29">
@@ -2542,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q29">
@@ -2552,15 +2645,18 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.96363636363636362</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20240127</v>
       </c>
@@ -2583,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="I30">
@@ -2596,11 +2692,11 @@
         <v>30</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N30">
@@ -2610,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="Q30">
@@ -2620,15 +2716,18 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="T30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.88333333333333341</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20240202</v>
       </c>
@@ -2651,7 +2750,7 @@
         <v>7</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
       <c r="I31">
@@ -2664,11 +2763,11 @@
         <v>31</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N31">
@@ -2678,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q31">
@@ -2688,15 +2787,18 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="T31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.77419354838709675</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20240209</v>
       </c>
@@ -2719,7 +2821,7 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="I32">
@@ -2732,11 +2834,11 @@
         <v>30</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
       <c r="N32">
@@ -2746,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q32">
@@ -2756,15 +2858,18 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.98666666666666669</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20240217</v>
       </c>
@@ -2787,7 +2892,7 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="I33">
@@ -2800,11 +2905,11 @@
         <v>30</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.13793103448275862</v>
       </c>
       <c r="N33">
@@ -2814,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q33">
@@ -2824,15 +2929,18 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.97126436781609193</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20240223</v>
       </c>
@@ -2855,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I34">
@@ -2868,11 +2976,11 @@
         <v>28</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="N34">
@@ -2882,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
       <c r="Q34">
@@ -2892,12 +3000,15 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
+      </c>
+      <c r="U34">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2907,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781051-6522-4E4E-9554-37C8C7318AF2}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3151,6 +3262,17 @@
         <v>64</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2023-bis-2025-Teamstatistiken-R.xlsx
+++ b/2023-bis-2025-Teamstatistiken-R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\MEK 2024-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurakiemes/MEK-Analyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20375BF1-BC78-4BBC-9861-6459D305D296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A945E1-DF4F-3140-93BB-5B80A58B02B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>Punkte Gegner</t>
   </si>
   <si>
-    <t>Die Punktzahl (absolut), die die gegnerische Mannschaft in der Saison 2023/24 erzielt hat</t>
+    <t>Die Punktzahl (absolut), die die gegnerische Mannschaft in der jeweiligen Saison erzielt hat</t>
   </si>
 </sst>
 </file>
@@ -299,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -445,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,9 +601,9 @@
       <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20221030</v>
       </c>
@@ -739,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20221105</v>
       </c>
@@ -810,7 +810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20221112</v>
       </c>
@@ -881,7 +881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20221118</v>
       </c>
@@ -952,7 +952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20221120</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20221127</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20221204</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20221210</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20221217</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20230107</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20230113</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20230131</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20230122</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20230127</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20230128</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20230203</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20230205</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20230211</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20231105</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20231111</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20231118</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20231124</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20231209</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20231215</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20231217</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20240105</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20240113</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20240119</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20240127</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20240202</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>20240209</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20240217</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>20240223</v>
       </c>
@@ -3020,18 +3020,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA781051-6522-4E4E-9554-37C8C7318AF2}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="133.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="133.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -3275,5 +3275,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>